--- a/Township graphs.xlsx
+++ b/Township graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfc774c5e9974862/Documentos/DA13/sql/app-trader-da13-township/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD5F663-DA0F-4635-9C37-5047E1F47AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{9CD5F663-DA0F-4635-9C37-5047E1F47AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{792C9C32-E7A3-491D-8465-BEAE34CEE810}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{6B496B12-AFA0-4EE5-A336-EBC0B879A4F7}"/>
+    <workbookView xWindow="11916" yWindow="264" windowWidth="10080" windowHeight="12588" activeTab="1" xr2:uid="{6B496B12-AFA0-4EE5-A336-EBC0B879A4F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -19,22 +19,15 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$14:$D$25</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$13</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$13</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$F$14:$F$25</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$G$13</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$G$14:$G$25</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$14:$E$25</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$13</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$14:$F$25</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$13</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$14:$G$25</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$14:$D$25</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$13</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$14:$E$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Facebook</t>
   </si>
@@ -161,6 +154,27 @@
   </si>
   <si>
     <t>Lifespan ROI</t>
+  </si>
+  <si>
+    <t>Geometry Dash Lite</t>
+  </si>
+  <si>
+    <t>PewDiePie's Tuber Simulator</t>
+  </si>
+  <si>
+    <t>Domino's Pizza USA</t>
+  </si>
+  <si>
+    <t>Egg, Inc.</t>
+  </si>
+  <si>
+    <t>The Guardian</t>
+  </si>
+  <si>
+    <t>ASOS</t>
+  </si>
+  <si>
+    <t>lifespan</t>
   </si>
 </sst>
 </file>
@@ -204,7 +218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -212,6 +225,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,34 +357,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Facebook</c:v>
+                  <c:v>Geometry Dash Lite</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>PewDiePie's Tuber Simulator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Domino's Pizza USA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Egg, Inc.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>The Guardian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ASOS</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>WhatsApp Messenger</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>Clash of Clans</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>Subway Surfers</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Clash Royale</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Candy Crush Saga</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Snapchat</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>My Talking Tom</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Twitter</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -450,34 +464,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Facebook</c:v>
+                  <c:v>Geometry Dash Lite</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>PewDiePie's Tuber Simulator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Domino's Pizza USA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Egg, Inc.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>The Guardian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ASOS</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>WhatsApp Messenger</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>Clash of Clans</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>Subway Surfers</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Clash Royale</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Candy Crush Saga</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Snapchat</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>My Talking Tom</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Twitter</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -489,34 +503,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.25</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.25</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.25</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.25</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -557,34 +571,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Facebook</c:v>
+                  <c:v>Geometry Dash Lite</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>PewDiePie's Tuber Simulator</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Domino's Pizza USA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Egg, Inc.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>The Guardian</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ASOS</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>WhatsApp Messenger</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>Instagram</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>Clash of Clans</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>Subway Surfers</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Clash Royale</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Candy Crush Saga</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Snapchat</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>My Talking Tom</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Twitter</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -596,34 +610,34 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>882000</c:v>
+                  <c:v>1078000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>882000</c:v>
+                  <c:v>1078000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1102500</c:v>
+                  <c:v>1078000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1102500</c:v>
+                  <c:v>1078000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1102500</c:v>
+                  <c:v>1078000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1102500</c:v>
+                  <c:v>1078000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>882000</c:v>
+                  <c:v>980000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>882000</c:v>
+                  <c:v>980000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1102500</c:v>
+                  <c:v>980000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>882000</c:v>
+                  <c:v>980000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,26 +853,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -907,7 +921,7 @@
         <cx:series layoutId="waterfall" uniqueId="{801F5E6B-42C9-4DC0-B700-28C7133A8AE8}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Monthly Profit</cx:v>
             </cx:txData>
           </cx:tx>
@@ -922,7 +936,7 @@
         <cx:series layoutId="waterfall" hidden="1" uniqueId="{42935678-6A33-4AAB-8C06-F6B23D1DBDC9}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>Purchase Price</cx:v>
             </cx:txData>
           </cx:tx>
@@ -937,7 +951,7 @@
         <cx:series layoutId="waterfall" hidden="1" uniqueId="{69F3CCB6-7670-48EB-B073-51D1E48D5C71}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Monthly Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2132,7 +2146,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7901940" y="537210"/>
+              <a:off x="8709660" y="537210"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2200,10 +2214,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2315,7 +2325,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03D2A35F-D7BF-432A-966A-4C082C8F1059}" name="PivotTable16" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03D2A35F-D7BF-432A-966A-4C082C8F1059}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" numFmtId="6" showAll="0"/>
@@ -2707,26 +2717,26 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>10000</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>582000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>9000</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>582000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>582000</v>
       </c>
     </row>
@@ -2737,10 +2747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7163CDC3-98FB-4394-A5B1-26FD7B9D9F13}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3059,7 +3069,7 @@
       <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>-1000</v>
       </c>
       <c r="F14" s="1">
@@ -3076,7 +3086,7 @@
       <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f>SUM(E14+9000)</f>
         <v>8000</v>
       </c>
@@ -3095,7 +3105,7 @@
       <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f t="shared" ref="E16:E25" si="0">SUM(E15+9000)</f>
         <v>17000</v>
       </c>
@@ -3114,7 +3124,7 @@
       <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>26000</v>
       </c>
@@ -3133,7 +3143,7 @@
       <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
@@ -3152,7 +3162,7 @@
       <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>44000</v>
       </c>
@@ -3171,7 +3181,7 @@
       <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>53000</v>
       </c>
@@ -3190,7 +3200,7 @@
       <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>62000</v>
       </c>
@@ -3209,7 +3219,7 @@
       <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>71000</v>
       </c>
@@ -3228,7 +3238,7 @@
       <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
@@ -3247,7 +3257,7 @@
       <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <f t="shared" si="0"/>
         <v>89000</v>
       </c>
@@ -3266,7 +3276,7 @@
       <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <f t="shared" si="0"/>
         <v>98000</v>
       </c>
@@ -3281,11 +3291,18 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E26" s="6"/>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F27" t="s">
-        <v>15</v>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6">
+        <f>SUM(9000)</f>
+        <v>9000</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -3298,153 +3315,272 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="6">
+        <f>SUM(C27)+9000</f>
+        <v>18000</v>
+      </c>
+      <c r="E28">
+        <f>SUM($C$38*H28)</f>
+        <v>1188000</v>
+      </c>
       <c r="F28" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1">
         <v>98000</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I28" s="1">
         <f>SUM(H28*G28)</f>
-        <v>882000</v>
+        <v>1078000</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" ref="C29:C38" si="1">SUM(C28)+9000</f>
+        <v>27000</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E37" si="2">SUM($C$38*H29)</f>
+        <v>1188000</v>
+      </c>
       <c r="F29" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1">
         <v>98000</v>
       </c>
       <c r="H29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" ref="I29:I37" si="1">SUM(H29*G29)</f>
-        <v>882000</v>
+        <f t="shared" ref="I29:I37" si="3">SUM(H29*G29)</f>
+        <v>1078000</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="1"/>
+        <v>36000</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>1188000</v>
+      </c>
       <c r="F30" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="G30" s="1">
         <v>98000</v>
       </c>
       <c r="H30">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="3"/>
+        <v>1078000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="6">
         <f t="shared" si="1"/>
-        <v>1102500</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>45000</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>1188000</v>
+      </c>
       <c r="F31" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G31" s="1">
         <v>98000</v>
       </c>
       <c r="H31">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="3"/>
+        <v>1078000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="6">
         <f t="shared" si="1"/>
-        <v>1102500</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>54000</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>1188000</v>
+      </c>
       <c r="F32" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G32" s="1">
         <v>98000</v>
       </c>
       <c r="H32">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="3"/>
+        <v>1078000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="6">
         <f t="shared" si="1"/>
-        <v>1102500</v>
-      </c>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.3">
+        <v>63000</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>1188000</v>
+      </c>
       <c r="F33" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G33" s="1">
         <v>98000</v>
       </c>
       <c r="H33">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="3"/>
+        <v>1078000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="6">
         <f t="shared" si="1"/>
-        <v>1102500</v>
-      </c>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.3">
+        <v>72000</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
       <c r="F34" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1">
         <v>98000</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="3"/>
+        <v>980000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="6">
         <f t="shared" si="1"/>
-        <v>882000</v>
-      </c>
-    </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.3">
+        <v>81000</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
       <c r="F35" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1">
         <v>98000</v>
       </c>
       <c r="H35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="3"/>
+        <v>980000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="6">
         <f t="shared" si="1"/>
-        <v>882000</v>
-      </c>
-    </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.3">
+        <v>90000</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1">
         <v>98000</v>
       </c>
       <c r="H36">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="3"/>
+        <v>980000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="6">
         <f t="shared" si="1"/>
-        <v>1102500</v>
-      </c>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.3">
+        <v>99000</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>1080000</v>
+      </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G37" s="1">
         <v>98000</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="3"/>
+        <v>980000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="6">
         <f t="shared" si="1"/>
-        <v>882000</v>
+        <v>108000</v>
       </c>
     </row>
   </sheetData>
